--- a/03_plots_and_tables/long_CD_table.xlsx
+++ b/03_plots_and_tables/long_CD_table.xlsx
@@ -401,10 +401,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>6.999999999999999e-05</v>
+        <v>7.140015466933395e-05</v>
       </c>
       <c r="E2">
-        <v>0.0001</v>
+        <v>0.0001071002320040009</v>
       </c>
     </row>
     <row r="3">
@@ -424,10 +424,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0001</v>
+        <v>0.0001033956780761844</v>
       </c>
       <c r="E3">
-        <v>0.00014</v>
+        <v>0.0001477081115374063</v>
       </c>
     </row>
     <row r="4">
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.00067</v>
+        <v>0.0006748631395582479</v>
       </c>
       <c r="E4">
-        <v>0.00091</v>
+        <v>0.0009202679175794289</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.00074</v>
+        <v>0.0007371233712760463</v>
       </c>
       <c r="E5">
-        <v>0.0009700000000000001</v>
+        <v>0.0009614652668817995</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.00087</v>
+        <v>0.0008658463848846312</v>
       </c>
       <c r="E6">
-        <v>0.00109</v>
+        <v>0.001082307981105789</v>
       </c>
     </row>
     <row r="7">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.009259999999999999</v>
+        <v>0.00925984432440757</v>
       </c>
       <c r="E7">
-        <v>0.01068</v>
+        <v>0.01068443575893181</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.04426</v>
+        <v>0.04426121654413222</v>
       </c>
       <c r="E8">
-        <v>0.04918</v>
+        <v>0.04917912949348025</v>
       </c>
     </row>
     <row r="9">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.06702</v>
+        <v>0.06701766893307902</v>
       </c>
       <c r="E9">
-        <v>0.06702</v>
+        <v>0.06701766893307902</v>
       </c>
     </row>
     <row r="10">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.06702</v>
+        <v>0.06701766893307902</v>
       </c>
       <c r="E10">
-        <v>0.06702</v>
+        <v>0.06701766893307902</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.06702</v>
+        <v>0.06701766893307902</v>
       </c>
       <c r="E11">
-        <v>0.06702</v>
+        <v>0.06701766893307902</v>
       </c>
     </row>
   </sheetData>
